--- a/content.xlsx
+++ b/content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8120"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>title</t>
   </si>
@@ -48,22 +48,61 @@
     <t>unep-egr-2024.png</t>
   </si>
   <si>
-    <t>IPCC AR6</t>
-  </si>
-  <si>
     <t>https://mcc-apsis.github.io/AR6-Emissions-trends-and-drivers/</t>
   </si>
   <si>
     <t>ipcc-ar6.png</t>
   </si>
   <si>
-    <t>Indicators of climate change</t>
-  </si>
-  <si>
     <t>https://essd.copernicus.org/articles/16/2625/2024/</t>
   </si>
   <si>
     <t>indicators-climate-change.png</t>
+  </si>
+  <si>
+    <t>Indicators of global climate change 2023</t>
+  </si>
+  <si>
+    <t>The State of Carbon Dioxide Removal</t>
+  </si>
+  <si>
+    <t>https://www.stateofcdr.org/</t>
+  </si>
+  <si>
+    <t>state-of-cdr.png</t>
+  </si>
+  <si>
+    <t>IPCC 6th Assessment WGIII Report</t>
+  </si>
+  <si>
+    <t>hover_text</t>
+  </si>
+  <si>
+    <t>Since 2022 I have led the Global Emissions Trends chapter of the UNEP Emissions Gap Report. Here are figures from the 2024 version.</t>
+  </si>
+  <si>
+    <t>This is a tidy and organised dataset that pulls together the national greenhouse gas inventories. Figures are available here, as well as links to the data repository.</t>
+  </si>
+  <si>
+    <t>This paper provides updates between IPCC reports of some the most important indicators of global climate change.</t>
+  </si>
+  <si>
+    <t>This is a nice scientific report on carbon dioxide removal. We are currently planning a third version for 2026.</t>
+  </si>
+  <si>
+    <t>I was a chapter scientist in the last WGIII assessment and ended up producing all kinds of emissions analysis and figures across the report.</t>
+  </si>
+  <si>
+    <t>Discourses of climate delay</t>
+  </si>
+  <si>
+    <t>discourses-of-climate-delay.png</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/global-sustainability/article/discourses-of-climate-delay/7B11B722E3E3454BB6212378E32985A7</t>
+  </si>
+  <si>
+    <t>When a group of climate mitigation scientists dabbled in discourses and tried to characterise climate denial in the policy realm…</t>
   </si>
 </sst>
 </file>
@@ -381,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +438,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -410,8 +452,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -421,27 +466,64 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/content.xlsx
+++ b/content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Since 2022 I have led the Global Emissions Trends chapter of the UNEP Emissions Gap Report. Here are figures from the 2024 version.</t>
   </si>
   <si>
-    <t>This is a tidy and organised dataset that pulls together the national greenhouse gas inventories. Figures are available here, as well as links to the data repository.</t>
-  </si>
-  <si>
     <t>This paper provides updates between IPCC reports of some the most important indicators of global climate change.</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>When a group of climate mitigation scientists dabbled in discourses and tried to characterise climate denial in the policy realm…</t>
+  </si>
+  <si>
+    <t>The national greenhouse gas inventories are messy and this dataset makes them tidy. Figures are available here, as well as links to the data repository.</t>
   </si>
 </sst>
 </file>
@@ -426,9 +426,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -453,10 +453,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -470,7 +470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -481,10 +481,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -495,24 +495,24 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/content.xlsx
+++ b/content.xlsx
@@ -93,26 +93,34 @@
     <t>Discourses of climate delay</t>
   </si>
   <si>
-    <t>discourses-of-climate-delay.png</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/global-sustainability/article/discourses-of-climate-delay/7B11B722E3E3454BB6212378E32985A7</t>
-  </si>
-  <si>
-    <t>When a group of climate mitigation scientists dabbled in discourses and tried to characterise climate denial in the policy realm…</t>
-  </si>
-  <si>
     <t>The national greenhouse gas inventories are messy and this dataset makes them tidy. Figures are available here, as well as links to the data repository.</t>
+  </si>
+  <si>
+    <t>dod-celinekeller.png</t>
+  </si>
+  <si>
+    <t>https://lambwf.github.io/Discourses-of-climate-delay/</t>
+  </si>
+  <si>
+    <t>When a group of climate mitigation scientists dabbled in discourses and tried to characterise climate denial in the policy realm… Click here for a brief history.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,13 +143,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,7 +434,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,13 +514,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,6 +538,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/content.xlsx
+++ b/content.xlsx
@@ -78,9 +78,6 @@
     <t>hover_text</t>
   </si>
   <si>
-    <t>Since 2022 I have led the Global Emissions Trends chapter of the UNEP Emissions Gap Report. Here are figures from the 2024 version.</t>
-  </si>
-  <si>
     <t>This paper provides updates between IPCC reports of some the most important indicators of global climate change.</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>When a group of climate mitigation scientists dabbled in discourses and tried to characterise climate denial in the policy realm… Click here for a brief history.</t>
+  </si>
+  <si>
+    <t>Since 2022 I have co-led the Global Emissions Trends chapter of the UNEP Emissions Gap Report. Here are figures from the 2024 version.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,21 +506,21 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/content.xlsx
+++ b/content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8120"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>title</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Since 2022 I have co-led the Global Emissions Trends chapter of the UNEP Emissions Gap Report. Here are figures from the 2024 version.</t>
+  </si>
+  <si>
+    <t>Countries that have reached peak emissions</t>
+  </si>
+  <si>
+    <t>peak-emissions-map.png</t>
+  </si>
+  <si>
+    <t>https://lambwf.github.io/Countries-that-reached-peak-emissions/</t>
+  </si>
+  <si>
+    <t>A current list of countries that have peaked in GHG emissions and reduced for more than 10 years.</t>
   </si>
 </sst>
 </file>
@@ -431,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -481,65 +493,80 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
